--- a/erastracker/public/tour_schedule_corrected.xlsx
+++ b/erastracker/public/tour_schedule_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiengiang/theerastracker/erastracker/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5952D42-C5DC-C64F-BFAA-BA093AE45609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E8710B-2D98-B540-9654-8A06BD998699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14640" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1818,10 +1818,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2113,22 +2109,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
